--- a/biology/Botanique/Foetidia/Foetidia.xlsx
+++ b/biology/Botanique/Foetidia/Foetidia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foetidia est un genre de plante à fleurs de la famille des lécythidacée, appartenant à la sous-famille des foetididacées, qui comprend de 5 à 18 espèces selon les classifications. Ces plantes sont originaires de l'est de Madagascar.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Foetidia africana
 Foetidia asymetrica
@@ -546,9 +560,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 août 2013) :
 Foetidia africana Verdc. (1985)
 Foetidia asymmetrica H.Perrier (1953)
 Foetidia capuronii Bosser, Bull. Mus. Natl. Hist. Nat., B (1988)
@@ -567,7 +583,7 @@
 Foetidia rubescens Bosser, Bull. Mus. Natl. Hist. Nat., B (1988)
 Foetidia sambiranensis Bosser, Bull. Mus. Natl. Hist. Nat., B (1988)
 Foetidia vohemarensis Bosser, Bull. Mus. Natl. Hist. Nat., B (1988)
-Selon The Plant List            (18 août 2013)[3] :
+Selon The Plant List            (18 août 2013) :
 Foetidia africana Verdc.
 Foetidia asymmetrica H.Perrier
 Foetidia capuronii Bosser
@@ -612,7 +628,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Foetidia (Foetidiaceae) in L. Watson and M.J. Dallwitz (1992).</t>
         </is>
